--- a/ExcelPivots_EDA.xlsx
+++ b/ExcelPivots_EDA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oldye\Documents\CMU_2018\Spring2019\DataScience_BigData_95885\Project1\Github\Exploratory-data-analysis-on-forest-fires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5DC7E5-93AA-4866-BFBF-5B92BC786A82}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133BA971-15AA-489B-96B5-D04C075633CA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="4" xr2:uid="{EBFDBD98-3B76-4EA7-A139-B30D1D34502C}"/>
   </bookViews>
